--- a/members/이효린/notebooks/자동차등록대수_사고건수비_분석결과(12-16).xlsx
+++ b/members/이효린/notebooks/자동차등록대수_사고건수비_분석결과(12-16).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>2015_자동차등록대수_사고건수비</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>2016_자동차등록대수_사고건수비</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -467,16 +472,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>765.7686723665107</v>
+        <v>765768.672</v>
       </c>
       <c r="C2" t="n">
-        <v>780.8241803617144</v>
+        <v>780824.1800000001</v>
       </c>
       <c r="D2" t="n">
-        <v>809.153122326775</v>
+        <v>809153.122</v>
       </c>
       <c r="E2" t="n">
-        <v>831.993006993007</v>
+        <v>831993.007</v>
+      </c>
+      <c r="F2" t="n">
+        <v>838399.01</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +494,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2140.334541062802</v>
+        <v>2140334.541</v>
       </c>
       <c r="C3" t="n">
-        <v>1123.45263600084</v>
+        <v>1123452.636</v>
       </c>
       <c r="D3" t="n">
-        <v>801.9069471477766</v>
+        <v>801906.947</v>
       </c>
       <c r="E3" t="n">
-        <v>581.7523619284133</v>
+        <v>581752.362</v>
+      </c>
+      <c r="F3" t="n">
+        <v>583340.978</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +516,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>584.7206694832629</v>
+        <v>584720.669</v>
       </c>
       <c r="C4" t="n">
-        <v>700.4556382369776</v>
+        <v>700455.638</v>
       </c>
       <c r="D4" t="n">
-        <v>752.2636765888979</v>
+        <v>752263.677</v>
       </c>
       <c r="E4" t="n">
-        <v>835.4468551391628</v>
+        <v>835446.855</v>
+      </c>
+      <c r="F4" t="n">
+        <v>887931.642</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +538,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>335.8200041330854</v>
+        <v>335820.004</v>
       </c>
       <c r="C5" t="n">
-        <v>349.5939913255052</v>
+        <v>349593.991</v>
       </c>
       <c r="D5" t="n">
-        <v>380.8628110289173</v>
+        <v>380862.811</v>
       </c>
       <c r="E5" t="n">
-        <v>359.3111838069925</v>
+        <v>359311.184</v>
+      </c>
+      <c r="F5" t="n">
+        <v>358958.178</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +560,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>101.0574185356082</v>
+        <v>101057.419</v>
       </c>
       <c r="C6" t="n">
-        <v>107.500250749928</v>
+        <v>107500.251</v>
       </c>
       <c r="D6" t="n">
-        <v>106.7001592470656</v>
+        <v>106700.159</v>
       </c>
       <c r="E6" t="n">
-        <v>106.6886331803392</v>
+        <v>106688.633</v>
+      </c>
+      <c r="F6" t="n">
+        <v>115790.577</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +582,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>937.5800256081947</v>
+        <v>937580.026</v>
       </c>
       <c r="C7" t="n">
-        <v>990.9517426273459</v>
+        <v>990951.743</v>
       </c>
       <c r="D7" t="n">
-        <v>1035.460763888889</v>
+        <v>1035460.764</v>
       </c>
       <c r="E7" t="n">
-        <v>1061.689449702068</v>
+        <v>1061689.45</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1071478.14</v>
       </c>
     </row>
     <row r="8">
@@ -581,16 +604,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>179.657385436378</v>
+        <v>179657.385</v>
       </c>
       <c r="C8" t="n">
-        <v>187.1489668676251</v>
+        <v>187148.967</v>
       </c>
       <c r="D8" t="n">
-        <v>181.8936300362061</v>
+        <v>181893.63</v>
       </c>
       <c r="E8" t="n">
-        <v>182.3993404414724</v>
+        <v>182399.34</v>
+      </c>
+      <c r="F8" t="n">
+        <v>183754.401</v>
       </c>
     </row>
     <row r="9">
@@ -603,6 +629,7 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -611,16 +638,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>422.0775269872424</v>
+        <v>422077.527</v>
       </c>
       <c r="C10" t="n">
-        <v>465.9504741833509</v>
+        <v>465950.474</v>
       </c>
       <c r="D10" t="n">
-        <v>474.9394273127753</v>
+        <v>474939.427</v>
       </c>
       <c r="E10" t="n">
-        <v>450.9155645981689</v>
+        <v>450915.565</v>
+      </c>
+      <c r="F10" t="n">
+        <v>482292.242</v>
       </c>
     </row>
     <row r="11">
@@ -630,16 +660,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>659.9475081097022</v>
+        <v>659947.508</v>
       </c>
       <c r="C11" t="n">
-        <v>671.1816573282217</v>
+        <v>671181.657</v>
       </c>
       <c r="D11" t="n">
-        <v>461.6741085271318</v>
+        <v>461674.109</v>
       </c>
       <c r="E11" t="n">
-        <v>510.7675568743818</v>
+        <v>510767.557</v>
+      </c>
+      <c r="F11" t="n">
+        <v>504229.928</v>
       </c>
     </row>
     <row r="12">
@@ -652,6 +685,7 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -660,16 +694,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>47.30989582452145</v>
+        <v>47309.896</v>
       </c>
       <c r="C13" t="n">
-        <v>47.35351917242655</v>
+        <v>47353.519</v>
       </c>
       <c r="D13" t="n">
-        <v>45.31530911151259</v>
+        <v>45315.309</v>
       </c>
       <c r="E13" t="n">
-        <v>44.6801872387087</v>
+        <v>44680.187</v>
+      </c>
+      <c r="F13" t="n">
+        <v>42226.719</v>
       </c>
     </row>
     <row r="14">
@@ -679,16 +716,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>156.3702523780474</v>
+        <v>156370.252</v>
       </c>
       <c r="C14" t="n">
-        <v>169.1481123177014</v>
+        <v>169148.112</v>
       </c>
       <c r="D14" t="n">
-        <v>170.6186526498529</v>
+        <v>170618.653</v>
       </c>
       <c r="E14" t="n">
-        <v>178.0412406947891</v>
+        <v>178041.241</v>
+      </c>
+      <c r="F14" t="n">
+        <v>181984.548</v>
       </c>
     </row>
     <row r="15">
@@ -698,16 +738,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>349.7994896099161</v>
+        <v>349799.49</v>
       </c>
       <c r="C15" t="n">
-        <v>392.3725953425582</v>
+        <v>392372.595</v>
       </c>
       <c r="D15" t="n">
-        <v>458.2237351075352</v>
+        <v>458223.735</v>
       </c>
       <c r="E15" t="n">
-        <v>410.3735005452563</v>
+        <v>410373.501</v>
+      </c>
+      <c r="F15" t="n">
+        <v>437691.268</v>
       </c>
     </row>
     <row r="16">
@@ -717,16 +760,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>316.9116156050254</v>
+        <v>316911.616</v>
       </c>
       <c r="C16" t="n">
-        <v>334.2808332856407</v>
+        <v>334280.833</v>
       </c>
       <c r="D16" t="n">
-        <v>333.4857046565186</v>
+        <v>333485.705</v>
       </c>
       <c r="E16" t="n">
-        <v>340.941249436175</v>
+        <v>340941.249</v>
+      </c>
+      <c r="F16" t="n">
+        <v>350261.25</v>
       </c>
     </row>
     <row r="17">
@@ -736,16 +782,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>401.5280033688263</v>
+        <v>401528.003</v>
       </c>
       <c r="C17" t="n">
-        <v>368.9049252114077</v>
+        <v>368904.925</v>
       </c>
       <c r="D17" t="n">
-        <v>360.7840995959376</v>
+        <v>360784.1</v>
       </c>
       <c r="E17" t="n">
-        <v>341.7989074839396</v>
+        <v>341798.907</v>
+      </c>
+      <c r="F17" t="n">
+        <v>333072.722</v>
       </c>
     </row>
     <row r="18">
@@ -758,6 +807,7 @@
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -766,16 +816,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>196.8964160839161</v>
+        <v>196896.416</v>
       </c>
       <c r="C19" t="n">
-        <v>206.1907673494344</v>
+        <v>206190.767</v>
       </c>
       <c r="D19" t="n">
-        <v>215.7420178799489</v>
+        <v>215742.018</v>
       </c>
       <c r="E19" t="n">
-        <v>208.4663629460896</v>
+        <v>208466.363</v>
+      </c>
+      <c r="F19" t="n">
+        <v>214813.087</v>
       </c>
     </row>
     <row r="20">
@@ -785,16 +838,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>358.4905660377358</v>
+        <v>358490.566</v>
       </c>
       <c r="C20" t="n">
-        <v>328.4671532846716</v>
+        <v>328467.153</v>
       </c>
       <c r="D20" t="n">
-        <v>339.1089108910891</v>
+        <v>339108.911</v>
       </c>
       <c r="E20" t="n">
-        <v>312.5</v>
+        <v>312500</v>
+      </c>
+      <c r="F20" t="n">
+        <v>307302.231</v>
       </c>
     </row>
     <row r="21">
@@ -804,16 +860,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>428.3819964349376</v>
+        <v>428381.996</v>
       </c>
       <c r="C21" t="n">
-        <v>498.9061495176849</v>
+        <v>498906.15</v>
       </c>
       <c r="D21" t="n">
-        <v>433.9755003450655</v>
+        <v>433975.5</v>
       </c>
       <c r="E21" t="n">
-        <v>440.7981478305608</v>
+        <v>440798.148</v>
+      </c>
+      <c r="F21" t="n">
+        <v>446649.311</v>
       </c>
     </row>
     <row r="22">
@@ -826,6 +885,7 @@
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -834,16 +894,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>235.1057444531075</v>
+        <v>235105.744</v>
       </c>
       <c r="C23" t="n">
-        <v>249.965290183208</v>
+        <v>249965.29</v>
       </c>
       <c r="D23" t="n">
-        <v>240.9017105513526</v>
+        <v>240901.711</v>
       </c>
       <c r="E23" t="n">
-        <v>256.9748021586424</v>
+        <v>256974.802</v>
+      </c>
+      <c r="F23" t="n">
+        <v>268735.582</v>
       </c>
     </row>
     <row r="24">
@@ -853,16 +916,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>151.7280252749137</v>
+        <v>151728.025</v>
       </c>
       <c r="C24" t="n">
-        <v>163.6215261544855</v>
+        <v>163621.526</v>
       </c>
       <c r="D24" t="n">
-        <v>168.2111599968385</v>
+        <v>168211.16</v>
       </c>
       <c r="E24" t="n">
-        <v>170.3415700737619</v>
+        <v>170341.57</v>
+      </c>
+      <c r="F24" t="n">
+        <v>170171.528</v>
       </c>
     </row>
     <row r="25">
@@ -872,16 +938,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>210.8583320604857</v>
+        <v>210858.332</v>
       </c>
       <c r="C25" t="n">
-        <v>201.9635114071135</v>
+        <v>201963.511</v>
       </c>
       <c r="D25" t="n">
-        <v>231.7517386887552</v>
+        <v>231751.739</v>
       </c>
       <c r="E25" t="n">
-        <v>235.9307081807082</v>
+        <v>235930.708</v>
+      </c>
+      <c r="F25" t="n">
+        <v>249830.711</v>
       </c>
     </row>
     <row r="26">
@@ -891,16 +960,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>272.5059077289245</v>
+        <v>272505.908</v>
       </c>
       <c r="C26" t="n">
-        <v>282.2258064516129</v>
+        <v>282225.806</v>
       </c>
       <c r="D26" t="n">
-        <v>291.8498229123713</v>
+        <v>291849.823</v>
       </c>
       <c r="E26" t="n">
-        <v>297.4148642996694</v>
+        <v>297414.864</v>
+      </c>
+      <c r="F26" t="n">
+        <v>299553.874</v>
       </c>
     </row>
     <row r="27">
@@ -910,16 +982,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>135.5281084014752</v>
+        <v>135528.108</v>
       </c>
       <c r="C27" t="n">
-        <v>143.974616594042</v>
+        <v>143974.617</v>
       </c>
       <c r="D27" t="n">
-        <v>158.3956768587869</v>
+        <v>158395.677</v>
       </c>
       <c r="E27" t="n">
-        <v>170.0801640532018</v>
+        <v>170080.164</v>
+      </c>
+      <c r="F27" t="n">
+        <v>182944.447</v>
       </c>
     </row>
     <row r="28">
@@ -929,16 +1004,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>302.6238782676551</v>
+        <v>302623.878</v>
       </c>
       <c r="C28" t="n">
-        <v>313.0960574181497</v>
+        <v>313096.057</v>
       </c>
       <c r="D28" t="n">
-        <v>302.0803647762895</v>
+        <v>302080.365</v>
       </c>
       <c r="E28" t="n">
-        <v>301.4238671675711</v>
+        <v>301423.867</v>
+      </c>
+      <c r="F28" t="n">
+        <v>321051.155</v>
       </c>
     </row>
     <row r="29">
@@ -948,16 +1026,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>112.3292474921222</v>
+        <v>112329.247</v>
       </c>
       <c r="C29" t="n">
-        <v>106.0782168392662</v>
+        <v>106078.217</v>
       </c>
       <c r="D29" t="n">
-        <v>116.1360328516478</v>
+        <v>116136.033</v>
       </c>
       <c r="E29" t="n">
-        <v>119.97371818041</v>
+        <v>119973.718</v>
+      </c>
+      <c r="F29" t="n">
+        <v>114778.598</v>
       </c>
     </row>
     <row r="30">
@@ -967,16 +1048,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>179.3865193051122</v>
+        <v>179386.519</v>
       </c>
       <c r="C30" t="n">
-        <v>188.354813620101</v>
+        <v>188354.814</v>
       </c>
       <c r="D30" t="n">
-        <v>202.4113180614316</v>
+        <v>202411.318</v>
       </c>
       <c r="E30" t="n">
-        <v>200.1154830614805</v>
+        <v>200115.483</v>
+      </c>
+      <c r="F30" t="n">
+        <v>205118.855</v>
       </c>
     </row>
     <row r="31">
@@ -989,6 +1073,7 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1000,6 +1085,7 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1011,6 +1097,7 @@
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1019,16 +1106,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>193.357216995346</v>
+        <v>193357.217</v>
       </c>
       <c r="C34" t="n">
-        <v>188.6680510234352</v>
+        <v>188668.051</v>
       </c>
       <c r="D34" t="n">
-        <v>186.9690236570383</v>
+        <v>186969.024</v>
       </c>
       <c r="E34" t="n">
-        <v>180.3586517697869</v>
+        <v>180358.652</v>
+      </c>
+      <c r="F34" t="n">
+        <v>179757.887</v>
       </c>
     </row>
     <row r="35">
@@ -1038,16 +1128,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>671.1996114618747</v>
+        <v>671199.611</v>
       </c>
       <c r="C35" t="n">
-        <v>716.4895249253773</v>
+        <v>716489.525</v>
       </c>
       <c r="D35" t="n">
-        <v>756.9917071775808</v>
+        <v>756991.7070000001</v>
       </c>
       <c r="E35" t="n">
-        <v>831.407164740498</v>
+        <v>831407.165</v>
+      </c>
+      <c r="F35" t="n">
+        <v>849601.949</v>
       </c>
     </row>
     <row r="36">
@@ -1057,16 +1150,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>749.2163575293281</v>
+        <v>749216.358</v>
       </c>
       <c r="C36" t="n">
-        <v>801.5381433499965</v>
+        <v>801538.143</v>
       </c>
       <c r="D36" t="n">
-        <v>788.2544895258717</v>
+        <v>788254.49</v>
       </c>
       <c r="E36" t="n">
-        <v>820.2576718548487</v>
+        <v>820257.672</v>
+      </c>
+      <c r="F36" t="n">
+        <v>818606.099</v>
       </c>
     </row>
     <row r="37">
@@ -1076,16 +1172,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>721.3973799126637</v>
+        <v>721397.38</v>
       </c>
       <c r="C37" t="n">
-        <v>794.1507311586051</v>
+        <v>794150.731</v>
       </c>
       <c r="D37" t="n">
-        <v>814.0495867768595</v>
+        <v>814049.5870000001</v>
       </c>
       <c r="E37" t="n">
-        <v>854.1947926711669</v>
+        <v>854194.7929999999</v>
+      </c>
+      <c r="F37" t="n">
+        <v>957491.5820000001</v>
       </c>
     </row>
     <row r="38">
@@ -1095,16 +1194,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>238.6803084223013</v>
+        <v>238680.308</v>
       </c>
       <c r="C38" t="n">
-        <v>235.2048307947231</v>
+        <v>235204.831</v>
       </c>
       <c r="D38" t="n">
-        <v>238.404871584527</v>
+        <v>238404.872</v>
       </c>
       <c r="E38" t="n">
-        <v>237.9732410752557</v>
+        <v>237973.241</v>
+      </c>
+      <c r="F38" t="n">
+        <v>241943.706</v>
       </c>
     </row>
     <row r="39">
@@ -1117,6 +1219,7 @@
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1128,6 +1231,7 @@
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
